--- a/config_Release/jing_yu_kuai_pao_server.xlsx
+++ b/config_Release/jing_yu_kuai_pao_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="12" r:id="rId1"/>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -708,10 +708,10 @@
         <v>100</v>
       </c>
       <c r="H2">
+        <v>50000000</v>
+      </c>
+      <c r="I2">
         <v>10000000</v>
-      </c>
-      <c r="I2">
-        <v>2500000</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_Release/jing_yu_kuai_pao_server.xlsx
+++ b/config_Release/jing_yu_kuai_pao_server.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="12" r:id="rId1"/>
@@ -219,7 +214,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -230,7 +224,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -247,8 +240,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="36">
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="183" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="187" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="190" formatCode="yy/m/d"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="194" formatCode="#\ ??"/>
+    <numFmt numFmtId="195" formatCode="m/d"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="197" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="199" formatCode="mmmmm"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,27 +291,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -288,9 +641,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -301,17 +896,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -598,19 +1237,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
@@ -629,7 +1268,7 @@
     <col min="17" max="17" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +1324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,20 +1381,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
@@ -764,7 +1405,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -784,7 +1425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -804,7 +1445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -824,7 +1465,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -844,7 +1485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -864,7 +1505,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -885,20 +1526,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
@@ -908,7 +1551,7 @@
     <col min="6" max="6" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -928,7 +1571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -948,7 +1591,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -968,7 +1611,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -988,7 +1631,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1008,7 +1651,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1028,7 +1671,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1048,7 +1691,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1068,32 +1711,34 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:4">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="37.375" customWidth="1"/>
     <col min="3" max="3" width="34.375" customWidth="1"/>
     <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1121,7 +1766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1135,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1149,7 +1794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1163,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1177,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1191,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1206,27 +1851,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="51.125" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1240,7 +1887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1248,13 +1895,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1262,13 +1909,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1276,13 +1923,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1290,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1304,35 +1951,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1354,7 +2003,7 @@
         <v>4194915</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1365,7 +2014,7 @@
         <v>2097458</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1376,7 +2025,7 @@
         <v>1398305</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1387,7 +2036,7 @@
         <v>1048729</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1398,7 +2047,7 @@
         <v>699153</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1409,7 +2058,7 @@
         <v>466102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1421,20 +2070,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
@@ -1446,7 +2097,7 @@
     <col min="9" max="9" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1472,7 +2123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1501,7 +2152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1530,7 +2181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1559,7 +2210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1588,37 +2239,39 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="7:9">
       <c r="G6" s="2"/>
       <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="7:7">
       <c r="G7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1629,7 +2282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1641,26 +2294,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1671,7 +2326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>21</v>
       </c>
@@ -1682,7 +2337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>22</v>
       </c>
@@ -1693,35 +2348,37 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1732,7 +2389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>31</v>
       </c>
@@ -1743,7 +2400,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>32</v>
       </c>
@@ -1754,7 +2411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>33</v>
       </c>
@@ -1765,35 +2422,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="12.75" customHeight="1" spans="2:2">
       <c r="B7" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1804,7 +2463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>41</v>
       </c>
@@ -1815,7 +2474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>42</v>
       </c>
@@ -1826,7 +2485,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>43</v>
       </c>
@@ -1837,21 +2496,116 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="12" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="10" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="15" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="8" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="13" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="14" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="16" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="17" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="15" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+  <rangeList sheetStid="16" master=""/>
+  <rangeList sheetStid="17" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="15"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="16"/>
+  <pixelatorList sheetStid="17"/>
+  <pixelatorList sheetStid="18"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config_Release/jing_yu_kuai_pao_server.xlsx
+++ b/config_Release/jing_yu_kuai_pao_server.xlsx
@@ -242,51 +242,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="36">
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="#\ ??"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="181" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="183" formatCode="#\ ?/?"/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="187" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="190" formatCode="yy/m/d"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="193" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="194" formatCode="#\ ??"/>
-    <numFmt numFmtId="195" formatCode="m/d"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="197" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="185" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="186" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="187" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="188" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="189" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="190" formatCode="m/d"/>
+    <numFmt numFmtId="191" formatCode="yy/m/d"/>
+    <numFmt numFmtId="192" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="193" formatCode="mmmmm"/>
+    <numFmt numFmtId="194" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="195" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="196" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;\¥\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="199" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="199" formatCode="mmmmm"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +296,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -310,7 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,17 +324,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,40 +365,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,15 +386,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,13 +401,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,187 +441,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,15 +640,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +695,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -725,141 +724,135 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,30 +861,29 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1895,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -1909,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1923,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1951,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2104,13 +2096,13 @@
       <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F1" t="s">
@@ -2119,7 +2111,7 @@
       <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2127,7 +2119,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C2">
@@ -2148,7 +2140,7 @@
       <c r="H2">
         <v>0.25</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2177,7 +2169,7 @@
       <c r="H3">
         <v>0.25</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2206,7 +2198,7 @@
       <c r="H4">
         <v>0.25</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2235,13 +2227,13 @@
       <c r="H5" s="2">
         <v>0.5</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="7:9">
       <c r="G6" s="2"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2349,13 +2341,13 @@
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2423,13 +2415,13 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="2:2">
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2492,22 +2484,22 @@
       <c r="B4" s="2">
         <v>60</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
